--- a/notebooks/data/players_skill_dataset/Transfermarkt World Cup 2022 Comparison.xlsx
+++ b/notebooks/data/players_skill_dataset/Transfermarkt World Cup 2022 Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itbdsti-my.sharepoint.com/personal/23522016_mahasiswa_itb_ac_id/Documents/Informatika S2/Semester 3/IF6099 Thesis/Draft Thesis/Thesis/Source Code/vaep-base-code/notebooks/data/players_skill_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="379" documentId="11_F25DC773A252ABDACC104849C99C61665BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD27B256-8290-49CE-9EE6-54E1CEFB1D6A}"/>
+  <xr:revisionPtr revIDLastSave="412" documentId="11_F25DC773A252ABDACC104849C99C61665BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4951C974-369E-4A75-BC2E-EEDD50CA6317}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1121,7 +1121,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1164,7 +1164,7 @@
         <v>68</v>
       </c>
       <c r="D2">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>29</v>
@@ -1184,7 +1184,7 @@
         <v>163</v>
       </c>
       <c r="D3">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>29</v>
@@ -1204,7 +1204,7 @@
         <v>41</v>
       </c>
       <c r="D4">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>30</v>
@@ -1224,7 +1224,7 @@
         <v>67</v>
       </c>
       <c r="D5">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>30</v>
@@ -1244,7 +1244,7 @@
         <v>27</v>
       </c>
       <c r="D6">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>30</v>
@@ -1264,7 +1264,7 @@
         <v>8</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>30</v>
@@ -1284,7 +1284,7 @@
         <v>188</v>
       </c>
       <c r="D8">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>29</v>
@@ -1324,7 +1324,7 @@
         <v>175</v>
       </c>
       <c r="D10">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>29</v>
@@ -1344,7 +1344,7 @@
         <v>43</v>
       </c>
       <c r="D11">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>30</v>
@@ -1364,7 +1364,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1407,7 +1407,7 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>30</v>
@@ -1447,7 +1447,7 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>30</v>
@@ -1467,7 +1467,7 @@
         <v>163</v>
       </c>
       <c r="D5">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>29</v>
@@ -1487,7 +1487,7 @@
         <v>62</v>
       </c>
       <c r="D6">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>29</v>
@@ -1507,7 +1507,7 @@
         <v>18</v>
       </c>
       <c r="D7">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>30</v>
@@ -1527,7 +1527,7 @@
         <v>70</v>
       </c>
       <c r="D8">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>30</v>
@@ -1547,7 +1547,7 @@
         <v>30</v>
       </c>
       <c r="D9">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>30</v>
@@ -1567,7 +1567,7 @@
         <v>188</v>
       </c>
       <c r="D10">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>29</v>
@@ -1587,7 +1587,7 @@
         <v>67</v>
       </c>
       <c r="D11">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>30</v>
@@ -1607,7 +1607,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1649,7 +1649,7 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>30</v>
@@ -1669,7 +1669,7 @@
         <v>163</v>
       </c>
       <c r="D3">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>29</v>
@@ -1689,7 +1689,7 @@
         <v>68</v>
       </c>
       <c r="D4">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>29</v>
@@ -1709,7 +1709,7 @@
         <v>41</v>
       </c>
       <c r="D5">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>30</v>
@@ -1729,7 +1729,7 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>30</v>
@@ -1769,7 +1769,7 @@
         <v>67</v>
       </c>
       <c r="D8">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>30</v>
@@ -1789,7 +1789,7 @@
         <v>27</v>
       </c>
       <c r="D9">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>30</v>
@@ -1809,7 +1809,7 @@
         <v>188</v>
       </c>
       <c r="D10">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>29</v>
@@ -1829,7 +1829,7 @@
         <v>62</v>
       </c>
       <c r="D11">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>29</v>

--- a/notebooks/data/players_skill_dataset/Transfermarkt World Cup 2022 Comparison.xlsx
+++ b/notebooks/data/players_skill_dataset/Transfermarkt World Cup 2022 Comparison.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itbdsti-my.sharepoint.com/personal/23522016_mahasiswa_itb_ac_id/Documents/Informatika S2/Semester 3/IF6099 Thesis/Draft Thesis/Thesis/Source Code/vaep-base-code/notebooks/data/players_skill_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="412" documentId="11_F25DC773A252ABDACC104849C99C61665BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4951C974-369E-4A75-BC2E-EEDD50CA6317}"/>
+  <xr:revisionPtr revIDLastSave="563" documentId="11_F25DC773A252ABDACC104849C99C61665BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47A76D5C-E680-42C3-BBBF-AD158523ED04}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basis" sheetId="1" r:id="rId1"/>
     <sheet name="Top 10 players goal 90" sheetId="2" r:id="rId2"/>
     <sheet name="Top 10 players assist 90" sheetId="3" r:id="rId3"/>
     <sheet name="Top 10 players goal assist 90" sheetId="4" r:id="rId4"/>
+    <sheet name="Top 10 VAEP ranking" sheetId="5" r:id="rId5"/>
+    <sheet name="Top 10 proposed ranking" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Basis!$A$1:$H$1</definedName>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="79">
   <si>
     <t>Player Name</t>
   </si>
@@ -180,13 +182,112 @@
   </si>
   <si>
     <t>35 million euro</t>
+  </si>
+  <si>
+    <t>Ranking VAEP</t>
+  </si>
+  <si>
+    <t>Eric Dier</t>
+  </si>
+  <si>
+    <t>Alireza Jahanbakhsh</t>
+  </si>
+  <si>
+    <t>Mehdi Torabi</t>
+  </si>
+  <si>
+    <t>Lovro Majer</t>
+  </si>
+  <si>
+    <t>Karl Toko Ekambi</t>
+  </si>
+  <si>
+    <t>Frenkie de Jong</t>
+  </si>
+  <si>
+    <t>Cesar Azpilicueta</t>
+  </si>
+  <si>
+    <t>Bernardo Silva</t>
+  </si>
+  <si>
+    <t>28 million euro</t>
+  </si>
+  <si>
+    <t>4 million euro</t>
+  </si>
+  <si>
+    <t>5 million euro</t>
+  </si>
+  <si>
+    <t>Uriel Antuna</t>
+  </si>
+  <si>
+    <t>0,8 million euro</t>
+  </si>
+  <si>
+    <t>18 million euro</t>
+  </si>
+  <si>
+    <t>60 million euro</t>
+  </si>
+  <si>
+    <t>15 million euro</t>
+  </si>
+  <si>
+    <t>80 million euro</t>
+  </si>
+  <si>
+    <t>Ranking Proposed</t>
+  </si>
+  <si>
+    <t>Eray Comert</t>
+  </si>
+  <si>
+    <t>Carlos Soler</t>
+  </si>
+  <si>
+    <t>Ronald Matarrita</t>
+  </si>
+  <si>
+    <t>Stephen Eustaquio</t>
+  </si>
+  <si>
+    <t>Rodrigo Hernandez</t>
+  </si>
+  <si>
+    <t>Christian Eriksen</t>
+  </si>
+  <si>
+    <t>Ilkay gundogan</t>
+  </si>
+  <si>
+    <t>1,8 million euro</t>
+  </si>
+  <si>
+    <t>Hattan Bahebri</t>
+  </si>
+  <si>
+    <t>0,7 million euro</t>
+  </si>
+  <si>
+    <t>2 million euro</t>
+  </si>
+  <si>
+    <t>20 million euro</t>
+  </si>
+  <si>
+    <t>229,8 million euro</t>
+  </si>
+  <si>
+    <t>202,5 million euro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +299,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF001D35"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -223,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -237,6 +345,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -252,10 +364,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -525,7 +633,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:H11"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1121,7 +1229,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1161,13 +1269,13 @@
         <v>1.875</v>
       </c>
       <c r="C2">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D2">
         <v>63</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>32</v>
@@ -1181,7 +1289,7 @@
         <v>1.5254237288135593</v>
       </c>
       <c r="C3">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="D3">
         <v>139</v>
@@ -1201,7 +1309,7 @@
         <v>1.3186813186813187</v>
       </c>
       <c r="C4">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D4">
         <v>46</v>
@@ -1221,7 +1329,7 @@
         <v>1.1065573770491803</v>
       </c>
       <c r="C5">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D5">
         <v>123</v>
@@ -1241,7 +1349,7 @@
         <v>1.0629921259842519</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>122</v>
@@ -1261,7 +1369,7 @@
         <v>0.91836734693877553</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>26</v>
@@ -1281,7 +1389,7 @@
         <v>0.91703056768558955</v>
       </c>
       <c r="C8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D8">
         <v>42</v>
@@ -1301,7 +1409,7 @@
         <v>0.88669950738916259</v>
       </c>
       <c r="C9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <v>158</v>
@@ -1321,13 +1429,13 @@
         <v>0.76271186440677963</v>
       </c>
       <c r="C10">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="D10">
         <v>112</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>38</v>
@@ -1341,7 +1449,7 @@
         <v>0.7531380753138075</v>
       </c>
       <c r="C11">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D11">
         <v>125</v>
@@ -1364,7 +1472,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1404,7 +1512,7 @@
         <v>1.8367346938775511</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>26</v>
@@ -1424,7 +1532,7 @@
         <v>1.5</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -1444,7 +1552,7 @@
         <v>0.92465753424657537</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>45</v>
@@ -1464,7 +1572,7 @@
         <v>0.76271186440677963</v>
       </c>
       <c r="C5">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="D5">
         <v>139</v>
@@ -1484,7 +1592,7 @@
         <v>0.7407407407407407</v>
       </c>
       <c r="C6">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>48</v>
@@ -1504,7 +1612,7 @@
         <v>0.72874493927125505</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>106</v>
@@ -1524,7 +1632,7 @@
         <v>0.69498069498069504</v>
       </c>
       <c r="C8">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D8">
         <v>91</v>
@@ -1544,7 +1652,7 @@
         <v>0.50847457627118642</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>109</v>
@@ -1564,7 +1672,7 @@
         <v>0.39301310043668125</v>
       </c>
       <c r="C10">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D10">
         <v>42</v>
@@ -1584,7 +1692,7 @@
         <v>0.36885245901639346</v>
       </c>
       <c r="C11">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D11">
         <v>123</v>
@@ -1605,9 +1713,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3646684C-3C25-4047-A473-E5B86158F854}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1646,7 +1754,7 @@
         <v>2.7551020408163267</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>26</v>
@@ -1666,7 +1774,7 @@
         <v>2.2881355932203391</v>
       </c>
       <c r="C3">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="D3">
         <v>139</v>
@@ -1686,13 +1794,13 @@
         <v>1.875</v>
       </c>
       <c r="C4">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D4">
         <v>63</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>32</v>
@@ -1706,7 +1814,7 @@
         <v>1.6483516483516483</v>
       </c>
       <c r="C5">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <v>46</v>
@@ -1726,7 +1834,7 @@
         <v>1.5410958904109591</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>45</v>
@@ -1746,7 +1854,7 @@
         <v>1.5</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -1766,7 +1874,7 @@
         <v>1.4754098360655739</v>
       </c>
       <c r="C8">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D8">
         <v>123</v>
@@ -1786,7 +1894,7 @@
         <v>1.4173228346456692</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>122</v>
@@ -1806,7 +1914,7 @@
         <v>1.3100436681222707</v>
       </c>
       <c r="C10">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D10">
         <v>42</v>
@@ -1826,7 +1934,7 @@
         <v>1.1111111111111112</v>
       </c>
       <c r="C11">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="D11">
         <v>48</v>
@@ -1836,6 +1944,300 @@
       </c>
       <c r="F11" s="3" t="s">
         <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B61E529-D83C-484A-98A4-6BD2F374DFA4}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="21.36328125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B2F487-8795-413F-9B8C-6D4F72F3EED7}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.54296875" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/data/players_skill_dataset/Transfermarkt World Cup 2022 Comparison.xlsx
+++ b/notebooks/data/players_skill_dataset/Transfermarkt World Cup 2022 Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itbdsti-my.sharepoint.com/personal/23522016_mahasiswa_itb_ac_id/Documents/Informatika S2/Semester 3/IF6099 Thesis/Draft Thesis/Thesis/Source Code/vaep-base-code/notebooks/data/players_skill_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="563" documentId="11_F25DC773A252ABDACC104849C99C61665BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47A76D5C-E680-42C3-BBBF-AD158523ED04}"/>
+  <xr:revisionPtr revIDLastSave="688" documentId="11_F25DC773A252ABDACC104849C99C61665BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF7BE49F-18D3-4911-A8AA-052A23116044}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="77">
   <si>
     <t>Player Name</t>
   </si>
@@ -187,9 +187,6 @@
     <t>Ranking VAEP</t>
   </si>
   <si>
-    <t>Eric Dier</t>
-  </si>
-  <si>
     <t>Alireza Jahanbakhsh</t>
   </si>
   <si>
@@ -199,42 +196,18 @@
     <t>Lovro Majer</t>
   </si>
   <si>
-    <t>Karl Toko Ekambi</t>
-  </si>
-  <si>
-    <t>Frenkie de Jong</t>
-  </si>
-  <si>
     <t>Cesar Azpilicueta</t>
   </si>
   <si>
-    <t>Bernardo Silva</t>
-  </si>
-  <si>
-    <t>28 million euro</t>
-  </si>
-  <si>
     <t>4 million euro</t>
   </si>
   <si>
-    <t>5 million euro</t>
-  </si>
-  <si>
-    <t>Uriel Antuna</t>
-  </si>
-  <si>
     <t>0,8 million euro</t>
   </si>
   <si>
     <t>18 million euro</t>
   </si>
   <si>
-    <t>60 million euro</t>
-  </si>
-  <si>
-    <t>15 million euro</t>
-  </si>
-  <si>
     <t>80 million euro</t>
   </si>
   <si>
@@ -250,18 +223,6 @@
     <t>Ronald Matarrita</t>
   </si>
   <si>
-    <t>Stephen Eustaquio</t>
-  </si>
-  <si>
-    <t>Rodrigo Hernandez</t>
-  </si>
-  <si>
-    <t>Christian Eriksen</t>
-  </si>
-  <si>
-    <t>Ilkay gundogan</t>
-  </si>
-  <si>
     <t>1,8 million euro</t>
   </si>
   <si>
@@ -274,13 +235,46 @@
     <t>2 million euro</t>
   </si>
   <si>
-    <t>20 million euro</t>
-  </si>
-  <si>
-    <t>229,8 million euro</t>
-  </si>
-  <si>
-    <t>202,5 million euro</t>
+    <t>Abderrazak Hamdallah</t>
+  </si>
+  <si>
+    <t>Jorge Resurreccion Merodio</t>
+  </si>
+  <si>
+    <t>Marco Asensio</t>
+  </si>
+  <si>
+    <t>Rodrigo Hernandez Cascante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge Resurreccion Merodio </t>
+  </si>
+  <si>
+    <t>Toby Alderweireld</t>
+  </si>
+  <si>
+    <t>Ilkay Gundogan</t>
+  </si>
+  <si>
+    <t>Jan Vertonghen</t>
+  </si>
+  <si>
+    <t>3,6 million euro</t>
+  </si>
+  <si>
+    <t>40 million euro</t>
+  </si>
+  <si>
+    <t>114,9 million euro</t>
+  </si>
+  <si>
+    <t>8 million euro</t>
+  </si>
+  <si>
+    <t>3 million euro</t>
+  </si>
+  <si>
+    <t>221,5 million euro</t>
   </si>
 </sst>
 </file>
@@ -364,6 +358,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1229,7 +1227,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1269,10 +1267,10 @@
         <v>1.875</v>
       </c>
       <c r="C2">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>30</v>
@@ -1289,13 +1287,13 @@
         <v>1.5254237288135593</v>
       </c>
       <c r="C3">
-        <v>174</v>
+        <v>72</v>
       </c>
       <c r="D3">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>33</v>
@@ -1309,10 +1307,10 @@
         <v>1.3186813186813187</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>30</v>
@@ -1329,10 +1327,10 @@
         <v>1.1065573770491803</v>
       </c>
       <c r="C5">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D5">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>30</v>
@@ -1349,10 +1347,10 @@
         <v>1.0629921259842519</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D6">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>30</v>
@@ -1369,10 +1367,10 @@
         <v>0.91836734693877553</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>30</v>
@@ -1389,13 +1387,13 @@
         <v>0.91703056768558955</v>
       </c>
       <c r="C8">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="D8">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>32</v>
@@ -1409,10 +1407,10 @@
         <v>0.88669950738916259</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>30</v>
@@ -1429,10 +1427,10 @@
         <v>0.76271186440677963</v>
       </c>
       <c r="C10">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D10">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>30</v>
@@ -1449,10 +1447,10 @@
         <v>0.7531380753138075</v>
       </c>
       <c r="C11">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D11">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>30</v>
@@ -1472,7 +1470,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1512,10 +1510,10 @@
         <v>1.8367346938775511</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>30</v>
@@ -1532,10 +1530,10 @@
         <v>1.5</v>
       </c>
       <c r="C3">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>29</v>
@@ -1552,10 +1550,10 @@
         <v>0.92465753424657537</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>30</v>
@@ -1572,13 +1570,13 @@
         <v>0.76271186440677963</v>
       </c>
       <c r="C5">
-        <v>174</v>
+        <v>72</v>
       </c>
       <c r="D5">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>33</v>
@@ -1592,13 +1590,13 @@
         <v>0.7407407407407407</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>42</v>
@@ -1612,10 +1610,10 @@
         <v>0.72874493927125505</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>30</v>
@@ -1632,10 +1630,10 @@
         <v>0.69498069498069504</v>
       </c>
       <c r="C8">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="D8">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>30</v>
@@ -1652,10 +1650,10 @@
         <v>0.50847457627118642</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D9">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>30</v>
@@ -1672,13 +1670,13 @@
         <v>0.39301310043668125</v>
       </c>
       <c r="C10">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="D10">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>32</v>
@@ -1692,10 +1690,10 @@
         <v>0.36885245901639346</v>
       </c>
       <c r="C11">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D11">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>30</v>
@@ -1715,7 +1713,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:F1"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1754,10 +1752,10 @@
         <v>2.7551020408163267</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>30</v>
@@ -1774,13 +1772,13 @@
         <v>2.2881355932203391</v>
       </c>
       <c r="C3">
-        <v>174</v>
+        <v>72</v>
       </c>
       <c r="D3">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>33</v>
@@ -1794,10 +1792,10 @@
         <v>1.875</v>
       </c>
       <c r="C4">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>30</v>
@@ -1814,10 +1812,10 @@
         <v>1.6483516483516483</v>
       </c>
       <c r="C5">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>30</v>
@@ -1834,10 +1832,10 @@
         <v>1.5410958904109591</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>30</v>
@@ -1854,10 +1852,10 @@
         <v>1.5</v>
       </c>
       <c r="C7">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>29</v>
@@ -1874,10 +1872,10 @@
         <v>1.4754098360655739</v>
       </c>
       <c r="C8">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>30</v>
@@ -1894,10 +1892,10 @@
         <v>1.4173228346456692</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D9">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>30</v>
@@ -1914,13 +1912,13 @@
         <v>1.3100436681222707</v>
       </c>
       <c r="C10">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="D10">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>32</v>
@@ -1934,13 +1932,13 @@
         <v>1.1111111111111112</v>
       </c>
       <c r="C11">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="D11">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>42</v>
@@ -1957,13 +1955,13 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.453125" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25.08984375" style="5" customWidth="1"/>
     <col min="3" max="3" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1983,10 +1981,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1994,10 +1992,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2005,10 +2003,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -2016,10 +2014,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2027,10 +2025,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -2038,10 +2036,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -2049,10 +2047,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -2060,10 +2058,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -2071,10 +2069,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -2082,15 +2080,15 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2110,13 +2108,13 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.54296875" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" customWidth="1"/>
     <col min="3" max="3" width="21.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2130,10 +2128,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2141,7 +2139,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
         <v>40</v>
@@ -2151,11 +2149,11 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
+      <c r="B4" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -2163,7 +2161,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -2174,10 +2172,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -2185,10 +2183,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -2199,7 +2197,7 @@
         <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -2207,10 +2205,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -2218,10 +2216,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -2229,15 +2227,15 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/data/players_skill_dataset/Transfermarkt World Cup 2022 Comparison.xlsx
+++ b/notebooks/data/players_skill_dataset/Transfermarkt World Cup 2022 Comparison.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itbdsti-my.sharepoint.com/personal/23522016_mahasiswa_itb_ac_id/Documents/Informatika S2/Semester 3/IF6099 Thesis/Draft Thesis/Thesis/Source Code/vaep-base-code/notebooks/data/players_skill_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="688" documentId="11_F25DC773A252ABDACC104849C99C61665BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF7BE49F-18D3-4911-A8AA-052A23116044}"/>
+  <xr:revisionPtr revIDLastSave="728" documentId="11_F25DC773A252ABDACC104849C99C61665BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F7FE24C-9103-4B87-92C1-1799ABC6E814}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1227,7 +1227,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1270,7 +1270,7 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>30</v>
@@ -1290,7 +1290,7 @@
         <v>72</v>
       </c>
       <c r="D3">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>30</v>
@@ -1310,7 +1310,7 @@
         <v>20</v>
       </c>
       <c r="D4">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>30</v>
@@ -1330,7 +1330,7 @@
         <v>43</v>
       </c>
       <c r="D5">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>30</v>
@@ -1350,7 +1350,7 @@
         <v>49</v>
       </c>
       <c r="D6">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>30</v>
@@ -1370,7 +1370,7 @@
         <v>64</v>
       </c>
       <c r="D7">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>30</v>
@@ -1390,7 +1390,7 @@
         <v>69</v>
       </c>
       <c r="D8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>30</v>
@@ -1430,7 +1430,7 @@
         <v>62</v>
       </c>
       <c r="D10">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>30</v>
@@ -1470,7 +1470,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1513,7 +1513,7 @@
         <v>64</v>
       </c>
       <c r="D2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>30</v>
@@ -1533,7 +1533,7 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>29</v>
@@ -1573,7 +1573,7 @@
         <v>72</v>
       </c>
       <c r="D5">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>30</v>
@@ -1593,7 +1593,7 @@
         <v>37</v>
       </c>
       <c r="D6">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>30</v>
@@ -1613,7 +1613,7 @@
         <v>26</v>
       </c>
       <c r="D7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>30</v>
@@ -1633,7 +1633,7 @@
         <v>39</v>
       </c>
       <c r="D8">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>30</v>
@@ -1653,7 +1653,7 @@
         <v>44</v>
       </c>
       <c r="D9">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>30</v>
@@ -1673,7 +1673,7 @@
         <v>69</v>
       </c>
       <c r="D10">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>30</v>
@@ -1693,7 +1693,7 @@
         <v>43</v>
       </c>
       <c r="D11">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>30</v>
@@ -1713,7 +1713,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1755,7 +1755,7 @@
         <v>64</v>
       </c>
       <c r="D2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>30</v>
@@ -1775,7 +1775,7 @@
         <v>72</v>
       </c>
       <c r="D3">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>30</v>
@@ -1795,7 +1795,7 @@
         <v>19</v>
       </c>
       <c r="D4">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>30</v>
@@ -1815,7 +1815,7 @@
         <v>20</v>
       </c>
       <c r="D5">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>30</v>
@@ -1855,7 +1855,7 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>29</v>
@@ -1875,7 +1875,7 @@
         <v>43</v>
       </c>
       <c r="D8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>30</v>
@@ -1895,7 +1895,7 @@
         <v>49</v>
       </c>
       <c r="D9">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>30</v>
@@ -1915,7 +1915,7 @@
         <v>69</v>
       </c>
       <c r="D10">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>30</v>
@@ -1935,7 +1935,7 @@
         <v>37</v>
       </c>
       <c r="D11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>30</v>
@@ -2102,7 +2102,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2172,10 +2172,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -2183,10 +2183,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">

--- a/notebooks/data/players_skill_dataset/Transfermarkt World Cup 2022 Comparison.xlsx
+++ b/notebooks/data/players_skill_dataset/Transfermarkt World Cup 2022 Comparison.xlsx
@@ -1227,7 +1227,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1470,7 +1470,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1713,7 +1713,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1955,7 +1955,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2102,7 +2102,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/notebooks/data/players_skill_dataset/Transfermarkt World Cup 2022 Comparison.xlsx
+++ b/notebooks/data/players_skill_dataset/Transfermarkt World Cup 2022 Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itbdsti-my.sharepoint.com/personal/23522016_mahasiswa_itb_ac_id/Documents/Informatika S2/Semester 3/IF6099 Thesis/Draft Thesis/Thesis/Source Code/vaep-base-code/notebooks/data/players_skill_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="728" documentId="11_F25DC773A252ABDACC104849C99C61665BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F7FE24C-9103-4B87-92C1-1799ABC6E814}"/>
+  <xr:revisionPtr revIDLastSave="786" documentId="11_F25DC773A252ABDACC104849C99C61665BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F41DE79F-C845-4D9D-B268-51796159324A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="75">
   <si>
     <t>Player Name</t>
   </si>
@@ -250,15 +250,9 @@
     <t xml:space="preserve">Jorge Resurreccion Merodio </t>
   </si>
   <si>
-    <t>Toby Alderweireld</t>
-  </si>
-  <si>
     <t>Ilkay Gundogan</t>
   </si>
   <si>
-    <t>Jan Vertonghen</t>
-  </si>
-  <si>
     <t>3,6 million euro</t>
   </si>
   <si>
@@ -268,20 +262,20 @@
     <t>114,9 million euro</t>
   </si>
   <si>
-    <t>8 million euro</t>
-  </si>
-  <si>
-    <t>3 million euro</t>
-  </si>
-  <si>
-    <t>221,5 million euro</t>
+    <t>William Carvalho</t>
+  </si>
+  <si>
+    <t>16 million euro</t>
+  </si>
+  <si>
+    <t>244,5 million euro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,13 +287,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF001D35"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -325,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -342,7 +329,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1227,7 +1213,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1270,7 +1256,7 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>30</v>
@@ -1290,7 +1276,7 @@
         <v>72</v>
       </c>
       <c r="D3">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>30</v>
@@ -1310,7 +1296,7 @@
         <v>20</v>
       </c>
       <c r="D4">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>30</v>
@@ -1330,7 +1316,7 @@
         <v>43</v>
       </c>
       <c r="D5">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>30</v>
@@ -1350,7 +1336,7 @@
         <v>49</v>
       </c>
       <c r="D6">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>30</v>
@@ -1370,7 +1356,7 @@
         <v>64</v>
       </c>
       <c r="D7">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>30</v>
@@ -1390,10 +1376,10 @@
         <v>69</v>
       </c>
       <c r="D8">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>32</v>
@@ -1430,7 +1416,7 @@
         <v>62</v>
       </c>
       <c r="D10">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>30</v>
@@ -1470,7 +1456,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1513,7 +1499,7 @@
         <v>64</v>
       </c>
       <c r="D2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>30</v>
@@ -1533,7 +1519,7 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>29</v>
@@ -1553,7 +1539,7 @@
         <v>35</v>
       </c>
       <c r="D4">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>30</v>
@@ -1573,7 +1559,7 @@
         <v>72</v>
       </c>
       <c r="D5">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>30</v>
@@ -1593,7 +1579,7 @@
         <v>37</v>
       </c>
       <c r="D6">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>30</v>
@@ -1613,7 +1599,7 @@
         <v>26</v>
       </c>
       <c r="D7">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>30</v>
@@ -1633,7 +1619,7 @@
         <v>39</v>
       </c>
       <c r="D8">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>30</v>
@@ -1653,7 +1639,7 @@
         <v>44</v>
       </c>
       <c r="D9">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>30</v>
@@ -1673,10 +1659,10 @@
         <v>69</v>
       </c>
       <c r="D10">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>32</v>
@@ -1693,7 +1679,7 @@
         <v>43</v>
       </c>
       <c r="D11">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>30</v>
@@ -1713,7 +1699,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1755,7 +1741,7 @@
         <v>64</v>
       </c>
       <c r="D2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>30</v>
@@ -1775,7 +1761,7 @@
         <v>72</v>
       </c>
       <c r="D3">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>30</v>
@@ -1795,7 +1781,7 @@
         <v>19</v>
       </c>
       <c r="D4">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>30</v>
@@ -1815,7 +1801,7 @@
         <v>20</v>
       </c>
       <c r="D5">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>30</v>
@@ -1835,7 +1821,7 @@
         <v>35</v>
       </c>
       <c r="D6">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>30</v>
@@ -1855,7 +1841,7 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>29</v>
@@ -1875,7 +1861,7 @@
         <v>43</v>
       </c>
       <c r="D8">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>30</v>
@@ -1895,7 +1881,7 @@
         <v>49</v>
       </c>
       <c r="D9">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>30</v>
@@ -1915,10 +1901,10 @@
         <v>69</v>
       </c>
       <c r="D10">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>32</v>
@@ -1935,7 +1921,7 @@
         <v>37</v>
       </c>
       <c r="D11">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>30</v>
@@ -2017,7 +2003,7 @@
         <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2050,7 +2036,7 @@
         <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -2088,7 +2074,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2102,7 +2088,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2110,6 +2096,7 @@
     <col min="1" max="1" width="18.54296875" customWidth="1"/>
     <col min="2" max="2" width="26.54296875" customWidth="1"/>
     <col min="3" max="3" width="21.7265625" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -2161,10 +2148,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2172,10 +2159,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -2183,21 +2170,21 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>68</v>
+      <c r="B8" t="s">
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -2205,10 +2192,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -2216,10 +2203,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -2227,15 +2214,15 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/data/players_skill_dataset/Transfermarkt World Cup 2022 Comparison.xlsx
+++ b/notebooks/data/players_skill_dataset/Transfermarkt World Cup 2022 Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itbdsti-my.sharepoint.com/personal/23522016_mahasiswa_itb_ac_id/Documents/Informatika S2/Semester 3/IF6099 Thesis/Draft Thesis/Thesis/Source Code/vaep-base-code/notebooks/data/players_skill_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="786" documentId="11_F25DC773A252ABDACC104849C99C61665BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F41DE79F-C845-4D9D-B268-51796159324A}"/>
+  <xr:revisionPtr revIDLastSave="846" documentId="11_F25DC773A252ABDACC104849C99C61665BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C7F80D1-CD97-4C60-820E-64FAB374FD6C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basis" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="77">
   <si>
     <t>Player Name</t>
   </si>
@@ -262,13 +262,19 @@
     <t>114,9 million euro</t>
   </si>
   <si>
-    <t>William Carvalho</t>
-  </si>
-  <si>
-    <t>16 million euro</t>
-  </si>
-  <si>
-    <t>244,5 million euro</t>
+    <t>Draw</t>
+  </si>
+  <si>
+    <t>Niklas Sule</t>
+  </si>
+  <si>
+    <t>Toby Aldeweireld</t>
+  </si>
+  <si>
+    <t>8 million euro</t>
+  </si>
+  <si>
+    <t>253,5 million euro</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1219,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1256,7 +1262,7 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>30</v>
@@ -1276,7 +1282,7 @@
         <v>72</v>
       </c>
       <c r="D3">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>30</v>
@@ -1296,7 +1302,7 @@
         <v>20</v>
       </c>
       <c r="D4">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>30</v>
@@ -1316,7 +1322,7 @@
         <v>43</v>
       </c>
       <c r="D5">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>30</v>
@@ -1336,7 +1342,7 @@
         <v>49</v>
       </c>
       <c r="D6">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>30</v>
@@ -1356,7 +1362,7 @@
         <v>64</v>
       </c>
       <c r="D7">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>30</v>
@@ -1376,10 +1382,10 @@
         <v>69</v>
       </c>
       <c r="D8">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>32</v>
@@ -1396,7 +1402,7 @@
         <v>50</v>
       </c>
       <c r="D9">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>30</v>
@@ -1416,7 +1422,7 @@
         <v>62</v>
       </c>
       <c r="D10">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>30</v>
@@ -1436,7 +1442,7 @@
         <v>57</v>
       </c>
       <c r="D11">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>30</v>
@@ -1456,7 +1462,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1499,7 +1505,7 @@
         <v>64</v>
       </c>
       <c r="D2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>30</v>
@@ -1539,10 +1545,10 @@
         <v>35</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>41</v>
@@ -1559,7 +1565,7 @@
         <v>72</v>
       </c>
       <c r="D5">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>30</v>
@@ -1579,7 +1585,7 @@
         <v>37</v>
       </c>
       <c r="D6">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>30</v>
@@ -1599,7 +1605,7 @@
         <v>26</v>
       </c>
       <c r="D7">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>30</v>
@@ -1619,7 +1625,7 @@
         <v>39</v>
       </c>
       <c r="D8">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>30</v>
@@ -1639,7 +1645,7 @@
         <v>44</v>
       </c>
       <c r="D9">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>30</v>
@@ -1659,10 +1665,10 @@
         <v>69</v>
       </c>
       <c r="D10">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>32</v>
@@ -1679,7 +1685,7 @@
         <v>43</v>
       </c>
       <c r="D11">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>30</v>
@@ -1741,7 +1747,7 @@
         <v>64</v>
       </c>
       <c r="D2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>30</v>
@@ -1761,7 +1767,7 @@
         <v>72</v>
       </c>
       <c r="D3">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>30</v>
@@ -1781,7 +1787,7 @@
         <v>19</v>
       </c>
       <c r="D4">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>30</v>
@@ -1801,7 +1807,7 @@
         <v>20</v>
       </c>
       <c r="D5">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>30</v>
@@ -1821,10 +1827,10 @@
         <v>35</v>
       </c>
       <c r="D6">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>41</v>
@@ -1861,7 +1867,7 @@
         <v>43</v>
       </c>
       <c r="D8">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>30</v>
@@ -1881,7 +1887,7 @@
         <v>49</v>
       </c>
       <c r="D9">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>30</v>
@@ -1901,10 +1907,10 @@
         <v>69</v>
       </c>
       <c r="D10">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>32</v>
@@ -1921,7 +1927,7 @@
         <v>37</v>
       </c>
       <c r="D11">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>30</v>
@@ -1939,7 +1945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B61E529-D83C-484A-98A4-6BD2F374DFA4}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:B11"/>
     </sheetView>
@@ -2086,9 +2092,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B2F487-8795-413F-9B8C-6D4F72F3EED7}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2148,10 +2154,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2159,10 +2165,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -2181,10 +2187,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -2192,10 +2198,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -2203,10 +2209,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -2214,15 +2220,15 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
